--- a/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E45533D-5718-4BEA-8E57-6F25821784EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{384BC2A5-1BB7-4747-9B9E-AEAE03DE90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DB5966A8-4DB4-49B4-8706-933B4BCFBECC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{385381B2-221F-44ED-BB7A-4241B0ED3BE4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1765 +77,1747 @@
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,72%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
   </si>
   <si>
     <t>16,42%</t>
   </si>
   <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,71%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
   </si>
   <si>
     <t>83,58%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>17,02%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>82,98%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
   </si>
   <si>
     <t>80,48%</t>
   </si>
   <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>23,13%</t>
@@ -1844,28 +1826,28 @@
     <t>20,47%</t>
   </si>
   <si>
-    <t>30,5%</t>
+    <t>31,99%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>69,5%</t>
+    <t>68,01%</t>
   </si>
   <si>
     <t>79,53%</t>
@@ -1874,10 +1856,10 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AB6AED5-3D82-41D3-909A-0E22B36C4308}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C429049-5539-4CED-9934-96D92D5D7A8F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2911,10 +2893,10 @@
         <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2911,13 @@
         <v>311108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -2944,13 +2926,13 @@
         <v>303635</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>624</v>
@@ -2959,13 +2941,13 @@
         <v>614743</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,7 +3003,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3033,13 +3015,13 @@
         <v>17951</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3048,13 +3030,13 @@
         <v>24898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3063,13 +3045,13 @@
         <v>42849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,13 +3066,13 @@
         <v>185357</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -3099,13 +3081,13 @@
         <v>182770</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -3114,13 +3096,13 @@
         <v>368127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,7 +3158,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3188,13 +3170,13 @@
         <v>42084</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3203,13 +3185,13 @@
         <v>53712</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3218,13 +3200,13 @@
         <v>95796</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,13 +3221,13 @@
         <v>228727</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -3254,13 +3236,13 @@
         <v>224432</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -3269,13 +3251,13 @@
         <v>453159</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3313,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3343,13 +3325,13 @@
         <v>88809</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -3358,13 +3340,13 @@
         <v>118630</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3373,13 +3355,13 @@
         <v>207439</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,13 +3376,13 @@
         <v>526218</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>503</v>
@@ -3409,13 +3391,13 @@
         <v>519589</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>1012</v>
@@ -3519,7 +3501,7 @@
         <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -3528,13 +3510,13 @@
         <v>191023</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,13 +3531,13 @@
         <v>655795</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>651</v>
@@ -3564,13 +3546,13 @@
         <v>679470</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1298</v>
@@ -3579,13 +3561,13 @@
         <v>1335265</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3635,13 @@
         <v>413562</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>548</v>
@@ -3668,13 +3650,13 @@
         <v>563384</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>968</v>
@@ -3683,13 +3665,13 @@
         <v>976946</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,16 +3683,16 @@
         <v>2793</v>
       </c>
       <c r="D29" s="7">
-        <v>2861963</v>
+        <v>2861964</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2749</v>
@@ -3719,28 +3701,28 @@
         <v>2815814</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5542</v>
       </c>
       <c r="N29" s="7">
-        <v>5677776</v>
+        <v>5677777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,7 +3734,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3782,7 +3764,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3796,7 +3778,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB49661-8CA1-42E5-BDDB-6332CFDE5891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB877195-9FE1-4847-8AFC-7FCD412DECC4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3837,7 +3819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3942,39 +3924,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,39 +3969,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,39 +4014,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4063,13 @@
         <v>80010</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -4096,13 +4078,13 @@
         <v>107062</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -4111,13 +4093,13 @@
         <v>187072</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4114,13 @@
         <v>425517</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4147,13 +4129,13 @@
         <v>415669</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>782</v>
@@ -4162,13 +4144,13 @@
         <v>841186</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,10 +4221,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4251,13 +4233,13 @@
         <v>77878</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -4266,13 +4248,13 @@
         <v>136881</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4269,13 @@
         <v>264113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4302,13 +4284,13 @@
         <v>263142</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -4317,13 +4299,13 @@
         <v>527255</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4373,13 @@
         <v>103329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -4406,13 +4388,13 @@
         <v>140295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>228</v>
@@ -4421,13 +4403,13 @@
         <v>243624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4442,13 +4424,13 @@
         <v>563663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -4457,13 +4439,13 @@
         <v>530002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>1018</v>
@@ -4472,13 +4454,13 @@
         <v>1093665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4516,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4546,13 +4528,13 @@
         <v>33103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4561,13 +4543,13 @@
         <v>57874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4576,13 +4558,13 @@
         <v>90977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4579,13 @@
         <v>179515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4612,13 +4594,13 @@
         <v>161717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -4627,13 +4609,13 @@
         <v>341232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,7 +4671,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4701,13 +4683,13 @@
         <v>62777</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -4716,13 +4698,13 @@
         <v>63564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4731,13 +4713,13 @@
         <v>126341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4734,13 @@
         <v>211204</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4767,13 +4749,13 @@
         <v>215576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4782,13 +4764,13 @@
         <v>426780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,7 +4826,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4856,13 +4838,13 @@
         <v>120839</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -4871,13 +4853,13 @@
         <v>159037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -4886,13 +4868,13 @@
         <v>279876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4889,13 @@
         <v>541949</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>493</v>
@@ -4922,13 +4904,13 @@
         <v>534816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M23" s="7">
         <v>1000</v>
@@ -4937,13 +4919,13 @@
         <v>1076765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +4993,13 @@
         <v>110293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -5026,13 +5008,13 @@
         <v>135830</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M25" s="7">
         <v>222</v>
@@ -5041,13 +5023,13 @@
         <v>246123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5044,13 @@
         <v>666679</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -5077,13 +5059,13 @@
         <v>684565</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5092,13 +5074,13 @@
         <v>1351244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5148,13 @@
         <v>569354</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H28" s="7">
         <v>688</v>
@@ -5181,28 +5163,28 @@
         <v>741541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
       </c>
       <c r="N28" s="7">
-        <v>1310895</v>
+        <v>1310894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5199,13 @@
         <v>2852640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="H29" s="7">
         <v>2600</v>
@@ -5232,13 +5214,13 @@
         <v>2805487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M29" s="7">
         <v>5286</v>
@@ -5247,13 +5229,13 @@
         <v>5658127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5277,7 @@
         <v>6492</v>
       </c>
       <c r="N30" s="7">
-        <v>6969022</v>
+        <v>6969021</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5309,7 +5291,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6B2907-21AA-4BE4-B0F2-F175A3A7C426}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA7044-E0CB-4E12-BE27-2185821EDC02}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5439,13 @@
         <v>30058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5472,13 +5454,13 @@
         <v>36738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -5487,13 +5469,13 @@
         <v>66796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5490,13 @@
         <v>263703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5523,13 +5505,13 @@
         <v>251965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>96</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -5538,13 +5520,13 @@
         <v>515668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5594,13 @@
         <v>80443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5627,13 +5609,13 @@
         <v>118153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -5642,13 +5624,13 @@
         <v>198597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5645,13 @@
         <v>422132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5678,13 +5660,13 @@
         <v>404931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -5693,13 +5675,13 @@
         <v>827062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5749,13 @@
         <v>48748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5782,13 +5764,13 @@
         <v>52169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5797,13 +5779,13 @@
         <v>100917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5800,13 @@
         <v>269817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5833,13 +5815,13 @@
         <v>284140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
         <v>568</v>
@@ -5848,13 +5830,13 @@
         <v>553957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5904,13 @@
         <v>62207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5937,13 +5919,13 @@
         <v>83555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>368</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5952,13 +5934,13 @@
         <v>145762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +5955,13 @@
         <v>307757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -5988,13 +5970,13 @@
         <v>303728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>378</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
@@ -6003,13 +5985,13 @@
         <v>611485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,7 +6047,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6077,13 +6059,13 @@
         <v>22973</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -6092,13 +6074,13 @@
         <v>42275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -6107,13 +6089,13 @@
         <v>65248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6110,13 @@
         <v>188248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6143,13 +6125,13 @@
         <v>176312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -6158,13 +6140,13 @@
         <v>364560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,7 +6202,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6232,13 +6214,13 @@
         <v>36212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>398</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>399</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>73</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -6247,13 +6229,13 @@
         <v>45375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -6262,13 +6244,13 @@
         <v>81587</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6265,13 @@
         <v>226911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>405</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -6298,13 +6280,13 @@
         <v>227740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -6313,13 +6295,13 @@
         <v>454651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,7 +6357,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6387,13 +6369,13 @@
         <v>96985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -6402,13 +6384,13 @@
         <v>97848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -6417,13 +6399,13 @@
         <v>194832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6420,13 @@
         <v>559573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -6453,13 +6435,13 @@
         <v>593446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="M23" s="7">
         <v>1053</v>
@@ -6468,13 +6450,13 @@
         <v>1153020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6524,13 @@
         <v>125962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -6557,13 +6539,13 @@
         <v>153411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -6572,13 +6554,13 @@
         <v>279373</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6575,13 @@
         <v>652621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -6608,13 +6590,13 @@
         <v>672756</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -6623,13 +6605,13 @@
         <v>1325377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6679,13 @@
         <v>503588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H28" s="7">
         <v>537</v>
@@ -6712,13 +6694,13 @@
         <v>629524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>284</v>
       </c>
       <c r="M28" s="7">
         <v>1038</v>
@@ -6727,13 +6709,13 @@
         <v>1133112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>452</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6730,13 @@
         <v>2890762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="H29" s="7">
         <v>2801</v>
@@ -6763,13 +6745,13 @@
         <v>2915018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>22</v>
+        <v>458</v>
       </c>
       <c r="M29" s="7">
         <v>5531</v>
@@ -6778,13 +6760,13 @@
         <v>5805780</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>461</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6840,7 +6822,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6864,7 +6846,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B91C0F-119B-4875-BD40-8EC4E86DD47E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C85621E-BDFF-4B20-870D-A1CE8D5EAE41}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6988,13 +6970,13 @@
         <v>55050</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -7003,13 +6985,13 @@
         <v>52255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>466</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -7018,13 +7000,13 @@
         <v>107304</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7021,13 @@
         <v>205248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H5" s="7">
         <v>426</v>
@@ -7054,13 +7036,13 @@
         <v>219148</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="M5" s="7">
         <v>675</v>
@@ -7069,13 +7051,13 @@
         <v>424396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7125,13 @@
         <v>82501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>479</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -7158,13 +7140,13 @@
         <v>84469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>216</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -7173,13 +7155,13 @@
         <v>166970</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7176,13 @@
         <v>434783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>487</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
@@ -7209,13 +7191,13 @@
         <v>468747</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7224,13 +7206,13 @@
         <v>903530</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,13 +7280,13 @@
         <v>72146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -7313,13 +7295,13 @@
         <v>91065</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -7328,13 +7310,13 @@
         <v>163211</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7349,7 +7331,7 @@
         <v>250094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>503</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>504</v>
@@ -7364,13 +7346,13 @@
         <v>282219</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -7379,10 +7361,10 @@
         <v>532313</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>510</v>
@@ -7596,7 +7578,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7611,10 +7593,10 @@
         <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -7623,13 +7605,13 @@
         <v>60945</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -7638,13 +7620,13 @@
         <v>98505</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>535</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7641,13 @@
         <v>159188</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>539</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>175</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -7674,13 +7656,13 @@
         <v>170958</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -7689,13 +7671,13 @@
         <v>330146</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7733,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7745,13 @@
         <v>77262</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -7778,13 +7760,13 @@
         <v>64780</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>552</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -7793,13 +7775,13 @@
         <v>142042</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>553</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7796,13 @@
         <v>199961</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>558</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -7829,13 +7811,13 @@
         <v>210842</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>559</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>542</v>
@@ -7844,13 +7826,13 @@
         <v>410803</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7906,7 +7888,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7918,13 +7900,13 @@
         <v>115833</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>563</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
@@ -7933,13 +7915,13 @@
         <v>247659</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -7948,13 +7930,13 @@
         <v>363492</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>571</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7969,7 +7951,7 @@
         <v>511921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>572</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>573</v>
@@ -8073,10 +8055,10 @@
         <v>146249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>581</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>447</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>582</v>
@@ -8088,13 +8070,13 @@
         <v>189787</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -8103,13 +8085,13 @@
         <v>336036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>481</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8124,13 +8106,13 @@
         <v>713179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>586</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>789</v>
@@ -8139,13 +8121,13 @@
         <v>675244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="M26" s="7">
         <v>1369</v>
@@ -8154,13 +8136,13 @@
         <v>1388423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8228,13 +8210,13 @@
         <v>652050</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>253</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>221</v>
+        <v>591</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="H28" s="7">
         <v>1388</v>
@@ -8243,13 +8225,13 @@
         <v>879597</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M28" s="7">
         <v>2247</v>
@@ -8258,13 +8240,13 @@
         <v>1531647</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,16 +8258,16 @@
         <v>2515</v>
       </c>
       <c r="D29" s="7">
-        <v>2731164</v>
+        <v>2731165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>605</v>
+        <v>262</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>231</v>
+        <v>600</v>
       </c>
       <c r="H29" s="7">
         <v>3972</v>
@@ -8294,28 +8276,28 @@
         <v>2923621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="M29" s="7">
         <v>6487</v>
       </c>
       <c r="N29" s="7">
-        <v>5654785</v>
+        <v>5654786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8309,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383214</v>
+        <v>3383215</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8357,7 +8339,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186432</v>
+        <v>7186433</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8371,7 +8353,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{384BC2A5-1BB7-4747-9B9E-AEAE03DE90F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3790CA1-6D61-40BE-A364-B5073EADEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{385381B2-221F-44ED-BB7A-4241B0ED3BE4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E7724C7-4E14-4A85-8AAD-01BD8FFED206}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="593">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,71%</t>
   </si>
   <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1702 +140,1660 @@
     <t>10,76%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
     <t>14,67%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
   </si>
   <si>
     <t>85,33%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>14,05%</t>
   </si>
   <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>85,95%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>88,12%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
   </si>
   <si>
     <t>13,71%</t>
   </si>
   <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>86,29%</t>
   </si>
   <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,06%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
   </si>
   <si>
     <t>17,08%</t>
   </si>
   <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>80,61%</t>
-  </si>
-  <si>
-    <t>87,49%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
   </si>
   <si>
     <t>82,92%</t>
   </si>
   <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>80,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>81,52%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,43%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>88,63%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
   </si>
   <si>
     <t>79,42%</t>
@@ -2271,7 +2229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C429049-5539-4CED-9934-96D92D5D7A8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4871FF-50F2-4149-B2C8-70C6644FCE1C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2878,10 +2836,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2890,13 +2848,13 @@
         <v>115384</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2869,13 @@
         <v>311108</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -2926,13 +2884,13 @@
         <v>303635</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="M14" s="7">
         <v>624</v>
@@ -2941,13 +2899,13 @@
         <v>614743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +2961,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3015,13 +2973,13 @@
         <v>17951</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -3030,13 +2988,13 @@
         <v>24898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3045,13 +3003,13 @@
         <v>42849</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3024,13 @@
         <v>185357</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -3081,13 +3039,13 @@
         <v>182770</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -3096,13 +3054,13 @@
         <v>368127</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3116,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3128,13 @@
         <v>42084</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3185,13 +3143,13 @@
         <v>53712</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3200,13 +3158,13 @@
         <v>95796</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3179,13 @@
         <v>228727</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -3236,13 +3194,13 @@
         <v>224432</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -3251,13 +3209,13 @@
         <v>453159</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3271,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3325,13 +3283,13 @@
         <v>88809</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -3340,13 +3298,13 @@
         <v>118630</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3355,13 +3313,13 @@
         <v>207439</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3334,13 @@
         <v>526218</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>503</v>
@@ -3391,13 +3349,13 @@
         <v>519589</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1012</v>
@@ -3406,13 +3364,13 @@
         <v>1045807</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3426,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3480,13 +3438,13 @@
         <v>86982</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -3495,13 +3453,13 @@
         <v>104041</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -3510,13 +3468,13 @@
         <v>191023</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3489,13 @@
         <v>655795</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>651</v>
@@ -3546,10 +3504,10 @@
         <v>679470</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>156</v>
@@ -3668,10 +3626,10 @@
         <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,16 +3641,16 @@
         <v>2793</v>
       </c>
       <c r="D29" s="7">
-        <v>2861964</v>
+        <v>2861963</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>2749</v>
@@ -3701,13 +3659,13 @@
         <v>2815814</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5542</v>
@@ -3716,13 +3674,13 @@
         <v>5677777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,7 +3692,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3778,7 +3736,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3802,7 +3760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB877195-9FE1-4847-8AFC-7FCD412DECC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28FB20D-46EC-4DE2-96B1-F9A0AA638FB8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3819,7 +3777,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3924,39 +3882,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,39 +3927,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,39 +3972,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4021,13 @@
         <v>80010</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -4078,13 +4036,13 @@
         <v>107062</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -4093,13 +4051,13 @@
         <v>187072</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4072,13 @@
         <v>425517</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4129,13 +4087,13 @@
         <v>415669</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>782</v>
@@ -4144,13 +4102,13 @@
         <v>841186</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,10 +4179,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4233,13 +4191,13 @@
         <v>77878</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -4248,13 +4206,13 @@
         <v>136881</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4227,13 @@
         <v>264113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4284,13 +4242,13 @@
         <v>263142</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -4299,13 +4257,13 @@
         <v>527255</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4373,13 +4331,13 @@
         <v>103329</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -4388,13 +4346,13 @@
         <v>140295</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>228</v>
@@ -4403,13 +4361,13 @@
         <v>243624</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4424,10 +4382,10 @@
         <v>563663</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>224</v>
@@ -4516,7 +4474,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4546,7 +4504,7 @@
         <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>235</v>
@@ -4600,7 +4558,7 @@
         <v>243</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -4671,7 +4629,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4713,7 +4671,7 @@
         <v>126341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>253</v>
@@ -4764,7 +4722,7 @@
         <v>426780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>261</v>
@@ -4826,7 +4784,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4841,10 +4799,10 @@
         <v>263</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -4853,13 +4811,13 @@
         <v>159037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -4868,10 +4826,10 @@
         <v>279876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>270</v>
@@ -4895,7 +4853,7 @@
         <v>272</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
       <c r="H23" s="7">
         <v>493</v>
@@ -4904,13 +4862,13 @@
         <v>534816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M23" s="7">
         <v>1000</v>
@@ -4919,13 +4877,13 @@
         <v>1076765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,7 +4939,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5023,13 +4981,13 @@
         <v>246123</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5002,13 @@
         <v>666679</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -5059,13 +5017,13 @@
         <v>684565</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5074,13 +5032,13 @@
         <v>1351244</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5148,13 +5106,13 @@
         <v>569354</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="H28" s="7">
         <v>688</v>
@@ -5163,13 +5121,13 @@
         <v>741541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
@@ -5178,13 +5136,13 @@
         <v>1310894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5199,13 +5157,13 @@
         <v>2852640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>307</v>
+        <v>194</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="H29" s="7">
         <v>2600</v>
@@ -5214,13 +5172,13 @@
         <v>2805487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M29" s="7">
         <v>5286</v>
@@ -5229,13 +5187,13 @@
         <v>5658127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,7 +5249,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5315,7 +5273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2AA7044-E0CB-4E12-BE27-2185821EDC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A856D6B-0455-45FD-8A11-7E2EB457B6D1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5332,7 +5290,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5439,13 +5397,13 @@
         <v>30058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5454,13 +5412,13 @@
         <v>36738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -5469,13 +5427,13 @@
         <v>66796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5448,13 @@
         <v>263703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5505,13 +5463,13 @@
         <v>251965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -5520,13 +5478,13 @@
         <v>515668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5552,13 @@
         <v>80443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5609,13 +5567,13 @@
         <v>118153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -5624,13 +5582,13 @@
         <v>198597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5603,13 @@
         <v>422132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5660,13 +5618,13 @@
         <v>404931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -5675,13 +5633,13 @@
         <v>827062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,13 +5707,13 @@
         <v>48748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5764,13 +5722,13 @@
         <v>52169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>144</v>
+        <v>345</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5779,13 +5737,13 @@
         <v>100917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5800,13 +5758,13 @@
         <v>269817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5815,13 +5773,13 @@
         <v>284140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>152</v>
+        <v>352</v>
       </c>
       <c r="M11" s="7">
         <v>568</v>
@@ -5830,13 +5788,13 @@
         <v>553957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,13 +5862,13 @@
         <v>62207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5919,13 +5877,13 @@
         <v>83555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5934,13 +5892,13 @@
         <v>145762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>371</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +5913,13 @@
         <v>307757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -5970,13 +5928,13 @@
         <v>303728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
@@ -5985,13 +5943,13 @@
         <v>611485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>381</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,7 +6005,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6059,13 +6017,13 @@
         <v>22973</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>384</v>
+        <v>55</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -6074,13 +6032,13 @@
         <v>42275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>386</v>
+        <v>316</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -6089,13 +6047,13 @@
         <v>65248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6068,13 @@
         <v>188248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6125,13 +6083,13 @@
         <v>176312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -6140,13 +6098,13 @@
         <v>364560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6160,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6214,13 +6172,13 @@
         <v>36212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>73</v>
+        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -6229,13 +6187,13 @@
         <v>45375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -6244,13 +6202,13 @@
         <v>81587</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6265,13 +6223,13 @@
         <v>226911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -6280,13 +6238,13 @@
         <v>227740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -6295,13 +6253,13 @@
         <v>454651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,7 +6315,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6369,13 +6327,13 @@
         <v>96985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -6384,13 +6342,13 @@
         <v>97848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -6399,13 +6357,13 @@
         <v>194832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6420,13 +6378,13 @@
         <v>559573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -6435,13 +6393,13 @@
         <v>593446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="M23" s="7">
         <v>1053</v>
@@ -6450,13 +6408,13 @@
         <v>1153020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>171</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,7 +6470,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6524,13 +6482,13 @@
         <v>125962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>431</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -6539,13 +6497,13 @@
         <v>153411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -6554,13 +6512,13 @@
         <v>279373</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>16</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,13 +6533,13 @@
         <v>652621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>440</v>
+        <v>169</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -6590,13 +6548,13 @@
         <v>672756</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -6605,13 +6563,13 @@
         <v>1325377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,13 +6637,13 @@
         <v>503588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="H28" s="7">
         <v>537</v>
@@ -6694,13 +6652,13 @@
         <v>629524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>284</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>1038</v>
@@ -6709,13 +6667,13 @@
         <v>1133112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,13 +6688,13 @@
         <v>2890762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="H29" s="7">
         <v>2801</v>
@@ -6745,13 +6703,13 @@
         <v>2915018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>5531</v>
@@ -6760,13 +6718,13 @@
         <v>5805780</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6822,7 +6780,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6846,7 +6804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C85621E-BDFF-4B20-870D-A1CE8D5EAE41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E854B4C0-4A5D-46E4-BD73-92CD267A737A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6863,7 +6821,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6970,13 +6928,13 @@
         <v>55050</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -6985,13 +6943,13 @@
         <v>52255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -7000,13 +6958,13 @@
         <v>107304</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7021,13 +6979,13 @@
         <v>205248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>426</v>
@@ -7036,13 +6994,13 @@
         <v>219148</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="M5" s="7">
         <v>675</v>
@@ -7051,13 +7009,13 @@
         <v>424396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7083,13 @@
         <v>82501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>480</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -7140,13 +7098,13 @@
         <v>84469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>216</v>
+        <v>470</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>483</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -7155,13 +7113,13 @@
         <v>166970</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,13 +7134,13 @@
         <v>434783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
@@ -7191,13 +7149,13 @@
         <v>468747</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>491</v>
+        <v>257</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>224</v>
+        <v>476</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7206,13 +7164,13 @@
         <v>903530</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7280,13 +7238,13 @@
         <v>72146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -7295,13 +7253,13 @@
         <v>91065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>482</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -7310,13 +7268,13 @@
         <v>163211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7331,13 +7289,13 @@
         <v>250094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -7346,13 +7304,13 @@
         <v>282219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>491</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -7361,13 +7319,13 @@
         <v>532313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7393,13 @@
         <v>65449</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -7450,13 +7408,13 @@
         <v>88638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>221</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="M13" s="7">
         <v>273</v>
@@ -7465,13 +7423,13 @@
         <v>154087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7486,13 +7444,13 @@
         <v>256791</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -7501,13 +7459,13 @@
         <v>339918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -7516,13 +7474,13 @@
         <v>596709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,7 +7536,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7590,13 +7548,13 @@
         <v>37560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -7605,13 +7563,13 @@
         <v>60945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -7620,13 +7578,13 @@
         <v>98505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7599,13 @@
         <v>159188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -7656,13 +7614,13 @@
         <v>170958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -7671,13 +7629,13 @@
         <v>330146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7733,7 +7691,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7745,13 +7703,13 @@
         <v>77262</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -7760,13 +7718,13 @@
         <v>64780</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -7775,13 +7733,13 @@
         <v>142042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>551</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7754,13 @@
         <v>199961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>554</v>
+        <v>535</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>556</v>
+        <v>537</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -7811,13 +7769,13 @@
         <v>210842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>557</v>
+        <v>538</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>558</v>
+        <v>539</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="M20" s="7">
         <v>542</v>
@@ -7826,13 +7784,13 @@
         <v>410803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>560</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,7 +7846,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7900,13 +7858,13 @@
         <v>115833</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
@@ -7915,13 +7873,13 @@
         <v>247659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -7930,13 +7888,13 @@
         <v>363492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7951,13 +7909,13 @@
         <v>511921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="H23" s="7">
         <v>732</v>
@@ -7966,13 +7924,13 @@
         <v>556544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -7981,13 +7939,13 @@
         <v>1068465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8043,7 +8001,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8055,13 +8013,13 @@
         <v>146249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>562</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>563</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -8070,13 +8028,13 @@
         <v>189787</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>565</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>583</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>584</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -8085,13 +8043,13 @@
         <v>336036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>185</v>
+        <v>566</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8106,13 +8064,13 @@
         <v>713179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>456</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7">
         <v>789</v>
@@ -8121,13 +8079,13 @@
         <v>675244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>571</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>572</v>
       </c>
       <c r="M26" s="7">
         <v>1369</v>
@@ -8136,13 +8094,13 @@
         <v>1388423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>573</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>195</v>
+        <v>574</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8168,13 @@
         <v>652050</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>575</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="H28" s="7">
         <v>1388</v>
@@ -8225,13 +8183,13 @@
         <v>879597</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="M28" s="7">
         <v>2247</v>
@@ -8240,13 +8198,13 @@
         <v>1531647</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8219,13 @@
         <v>2731165</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>262</v>
+        <v>584</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="H29" s="7">
         <v>3972</v>
@@ -8276,13 +8234,13 @@
         <v>2923621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="M29" s="7">
         <v>6487</v>
@@ -8291,13 +8249,13 @@
         <v>5654786</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8353,7 +8311,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3790CA1-6D61-40BE-A364-B5073EADEF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAE0FB1-54A3-4568-9B1C-F89512E72E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5E7724C7-4E14-4A85-8AAD-01BD8FFED206}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3ECC30B6-8140-490B-B616-537C44CB75CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>12,29%</t>
   </si>
   <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
   </si>
   <si>
     <t>14,74%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>13,48%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>87,71%</t>
   </si>
   <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>85,26%</t>
   </si>
   <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,1636 +143,1699 @@
     <t>8,17%</t>
   </si>
   <si>
-    <t>13,66%</t>
+    <t>14,03%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
     <t>12,22%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
   </si>
   <si>
     <t>87,78%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>83,45%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>20,68%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
   </si>
   <si>
     <t>79,32%</t>
   </si>
   <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>56,54%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>88,12%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>79,14%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>71,37%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>82,64%</t>
   </si>
   <si>
     <t>19,27%</t>
   </si>
   <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>20,6%</t>
   </si>
   <si>
     <t>23,13%</t>
@@ -1781,31 +1844,28 @@
     <t>20,47%</t>
   </si>
   <si>
-    <t>31,99%</t>
+    <t>30,5%</t>
   </si>
   <si>
     <t>21,31%</t>
   </si>
   <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>80,73%</t>
   </si>
   <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
+    <t>79,4%</t>
   </si>
   <si>
     <t>76,87%</t>
   </si>
   <si>
-    <t>68,01%</t>
+    <t>69,5%</t>
   </si>
   <si>
     <t>79,53%</t>
@@ -1814,10 +1874,10 @@
     <t>78,69%</t>
   </si>
   <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2289,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4871FF-50F2-4149-B2C8-70C6644FCE1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306FE0-2058-427D-987B-A1535D3A56E2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2836,10 +2896,10 @@
         <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>122</v>
@@ -2848,13 +2908,13 @@
         <v>115384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2929,13 @@
         <v>311108</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>313</v>
@@ -2884,13 +2944,13 @@
         <v>303635</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>624</v>
@@ -2899,13 +2959,13 @@
         <v>614743</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,7 +3021,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2973,13 +3033,13 @@
         <v>17951</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -2988,13 +3048,13 @@
         <v>24898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -3003,13 +3063,13 @@
         <v>42849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3084,13 @@
         <v>185357</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>175</v>
@@ -3039,13 +3099,13 @@
         <v>182770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>362</v>
@@ -3054,13 +3114,13 @@
         <v>368127</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,7 +3176,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3128,13 +3188,13 @@
         <v>42084</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -3143,13 +3203,13 @@
         <v>53712</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>93</v>
@@ -3158,13 +3218,13 @@
         <v>95796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3239,13 @@
         <v>228727</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>219</v>
@@ -3194,13 +3254,13 @@
         <v>224432</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>443</v>
@@ -3209,13 +3269,13 @@
         <v>453159</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,7 +3331,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3283,13 +3343,13 @@
         <v>88809</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>118</v>
@@ -3298,13 +3358,13 @@
         <v>118630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>207</v>
@@ -3313,13 +3373,13 @@
         <v>207439</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3394,13 @@
         <v>526218</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>503</v>
@@ -3349,13 +3409,13 @@
         <v>519589</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="M23" s="7">
         <v>1012</v>
@@ -3364,13 +3424,13 @@
         <v>1045807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,7 +3486,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3438,13 +3498,13 @@
         <v>86982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -3453,13 +3513,13 @@
         <v>104041</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -3468,13 +3528,13 @@
         <v>191023</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3549,13 @@
         <v>655795</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>651</v>
@@ -3504,13 +3564,13 @@
         <v>679470</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1298</v>
@@ -3519,13 +3579,13 @@
         <v>1335265</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3653,13 @@
         <v>413562</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>548</v>
@@ -3608,13 +3668,13 @@
         <v>563384</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M28" s="7">
         <v>968</v>
@@ -3623,13 +3683,13 @@
         <v>976946</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>58</v>
+        <v>169</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3704,13 @@
         <v>2861963</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>2749</v>
@@ -3659,28 +3719,28 @@
         <v>2815814</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5542</v>
       </c>
       <c r="N29" s="7">
-        <v>5677777</v>
+        <v>5677776</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3782,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3736,7 +3796,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +3820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28FB20D-46EC-4DE2-96B1-F9A0AA638FB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E1026-66C4-4BD8-AE3E-17FF0229D45E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3777,7 +3837,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3882,39 +3942,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,39 +3987,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,39 +4032,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4081,13 @@
         <v>80010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -4036,13 +4096,13 @@
         <v>107062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -4051,13 +4111,13 @@
         <v>187072</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4132,13 @@
         <v>425517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4087,13 +4147,13 @@
         <v>415669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M8" s="7">
         <v>782</v>
@@ -4102,13 +4162,13 @@
         <v>841186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4179,10 +4239,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4191,13 +4251,13 @@
         <v>77878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -4206,13 +4266,13 @@
         <v>136881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4287,13 @@
         <v>264113</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4242,13 +4302,13 @@
         <v>263142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -4257,13 +4317,13 @@
         <v>527255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4391,13 @@
         <v>103329</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>136</v>
@@ -4346,13 +4406,13 @@
         <v>140295</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>228</v>
@@ -4361,13 +4421,13 @@
         <v>243624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4442,13 @@
         <v>563663</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>486</v>
@@ -4397,13 +4457,13 @@
         <v>530002</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>1018</v>
@@ -4412,13 +4472,13 @@
         <v>1093665</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,7 +4534,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4486,13 +4546,13 @@
         <v>33103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4501,13 +4561,13 @@
         <v>57874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4516,13 +4576,13 @@
         <v>90977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4597,13 @@
         <v>179515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4552,13 +4612,13 @@
         <v>161717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -4567,13 +4627,13 @@
         <v>341232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,7 +4689,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4641,13 +4701,13 @@
         <v>62777</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -4656,13 +4716,13 @@
         <v>63564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4671,13 +4731,13 @@
         <v>126341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +4752,13 @@
         <v>211204</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4707,13 +4767,13 @@
         <v>215576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4722,13 +4782,13 @@
         <v>426780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,7 +4844,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4796,13 +4856,13 @@
         <v>120839</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -4811,13 +4871,13 @@
         <v>159037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -4826,13 +4886,13 @@
         <v>279876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4907,13 @@
         <v>541949</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>493</v>
@@ -4862,13 +4922,13 @@
         <v>534816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>1000</v>
@@ -4877,13 +4937,13 @@
         <v>1076765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4999,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4951,13 +5011,13 @@
         <v>110293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -4966,13 +5026,13 @@
         <v>135830</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>222</v>
@@ -4981,13 +5041,13 @@
         <v>246123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5062,13 @@
         <v>666679</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -5017,13 +5077,13 @@
         <v>684565</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5032,13 +5092,13 @@
         <v>1351244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5166,13 @@
         <v>569354</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>185</v>
+        <v>307</v>
       </c>
       <c r="H28" s="7">
         <v>688</v>
@@ -5121,28 +5181,28 @@
         <v>741541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
       </c>
       <c r="N28" s="7">
-        <v>1310894</v>
+        <v>1310895</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5217,13 @@
         <v>2852640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>314</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>273</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>2600</v>
@@ -5172,13 +5232,13 @@
         <v>2805487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="M29" s="7">
         <v>5286</v>
@@ -5187,13 +5247,13 @@
         <v>5658127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,7 +5295,7 @@
         <v>6492</v>
       </c>
       <c r="N30" s="7">
-        <v>6969021</v>
+        <v>6969022</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5249,7 +5309,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5273,7 +5333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A856D6B-0455-45FD-8A11-7E2EB457B6D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA4C8D6-1B22-4FB6-ACFD-82AA880A28D3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5290,7 +5350,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5397,13 +5457,13 @@
         <v>30058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5412,13 +5472,13 @@
         <v>36738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -5427,13 +5487,13 @@
         <v>66796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5448,13 +5508,13 @@
         <v>263703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5463,13 +5523,13 @@
         <v>251965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -5478,13 +5538,13 @@
         <v>515668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5612,13 @@
         <v>80443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5567,13 +5627,13 @@
         <v>118153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -5582,13 +5642,13 @@
         <v>198597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,13 +5663,13 @@
         <v>422132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5618,13 +5678,13 @@
         <v>404931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -5633,13 +5693,13 @@
         <v>827062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5707,13 +5767,13 @@
         <v>48748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5722,13 +5782,13 @@
         <v>52169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5737,13 +5797,13 @@
         <v>100917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5758,13 +5818,13 @@
         <v>269817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5773,13 +5833,13 @@
         <v>284140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>568</v>
@@ -5788,13 +5848,13 @@
         <v>553957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>355</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5862,13 +5922,13 @@
         <v>62207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>357</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>358</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5877,13 +5937,13 @@
         <v>83555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>360</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5892,13 +5952,13 @@
         <v>145762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>19</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5913,13 +5973,13 @@
         <v>307757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -5928,13 +5988,13 @@
         <v>303728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>369</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>577</v>
@@ -5943,13 +6003,13 @@
         <v>611485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>28</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6005,7 +6065,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6017,13 +6077,13 @@
         <v>22973</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>55</v>
+        <v>392</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -6032,13 +6092,13 @@
         <v>42275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>316</v>
+        <v>394</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -6047,13 +6107,13 @@
         <v>65248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,13 +6128,13 @@
         <v>188248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>400</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>380</v>
+        <v>401</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6083,13 +6143,13 @@
         <v>176312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>324</v>
+        <v>404</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -6098,13 +6158,13 @@
         <v>364560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,7 +6220,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6172,13 +6232,13 @@
         <v>36212</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -6187,13 +6247,13 @@
         <v>45375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>349</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -6202,13 +6262,13 @@
         <v>81587</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6283,13 @@
         <v>226911</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>394</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>396</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -6238,13 +6298,13 @@
         <v>227740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>355</v>
+        <v>418</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -6253,13 +6313,13 @@
         <v>454651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6375,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6327,13 +6387,13 @@
         <v>96985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -6342,13 +6402,13 @@
         <v>97848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -6357,13 +6417,13 @@
         <v>194832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>163</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,13 +6438,13 @@
         <v>559573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -6393,13 +6453,13 @@
         <v>593446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="M23" s="7">
         <v>1053</v>
@@ -6408,13 +6468,13 @@
         <v>1153020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>171</v>
+        <v>438</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6530,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6482,13 +6542,13 @@
         <v>125962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -6497,13 +6557,13 @@
         <v>153411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>422</v>
+        <v>377</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -6512,13 +6572,13 @@
         <v>279373</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6533,13 +6593,13 @@
         <v>652621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>169</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -6548,13 +6608,13 @@
         <v>672756</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>428</v>
+        <v>385</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -6563,13 +6623,13 @@
         <v>1325377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6697,13 @@
         <v>503588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>537</v>
@@ -6652,13 +6712,13 @@
         <v>629524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>1038</v>
@@ -6667,13 +6727,13 @@
         <v>1133112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>439</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6688,13 +6748,13 @@
         <v>2890762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>2801</v>
@@ -6703,13 +6763,13 @@
         <v>2915018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>22</v>
       </c>
       <c r="M29" s="7">
         <v>5531</v>
@@ -6718,13 +6778,13 @@
         <v>5805780</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6780,7 +6840,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6804,7 +6864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E854B4C0-4A5D-46E4-BD73-92CD267A737A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9740237-2D82-48A9-A62A-8C59A50D438A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6821,7 +6881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6928,13 +6988,13 @@
         <v>55050</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>469</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
@@ -6943,13 +7003,13 @@
         <v>52255</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>454</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
@@ -6958,13 +7018,13 @@
         <v>107304</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,13 +7039,13 @@
         <v>205248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>426</v>
@@ -6994,13 +7054,13 @@
         <v>219148</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>463</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>675</v>
@@ -7009,13 +7069,13 @@
         <v>424396</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7083,13 +7143,13 @@
         <v>82501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>190</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>483</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
@@ -7098,13 +7158,13 @@
         <v>84469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>470</v>
+        <v>325</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>248</v>
+        <v>486</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -7113,13 +7173,13 @@
         <v>166970</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>424</v>
+        <v>487</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7194,13 @@
         <v>434783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>473</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>417</v>
+        <v>491</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
@@ -7149,13 +7209,13 @@
         <v>468747</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>493</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>476</v>
+        <v>334</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
@@ -7164,13 +7224,13 @@
         <v>903530</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>431</v>
+        <v>494</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7238,13 +7298,13 @@
         <v>72146</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>479</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>481</v>
+        <v>498</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
@@ -7253,13 +7313,13 @@
         <v>91065</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
@@ -7268,13 +7328,13 @@
         <v>163211</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7289,13 +7349,13 @@
         <v>250094</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>488</v>
+        <v>83</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
@@ -7304,13 +7364,13 @@
         <v>282219</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
@@ -7319,13 +7379,13 @@
         <v>532313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>495</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7453,13 @@
         <v>65449</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
@@ -7408,13 +7468,13 @@
         <v>88638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>514</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="M13" s="7">
         <v>273</v>
@@ -7423,13 +7483,13 @@
         <v>154087</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>56</v>
+        <v>519</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7444,13 +7504,13 @@
         <v>256791</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
@@ -7459,13 +7519,13 @@
         <v>339918</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>523</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
@@ -7474,13 +7534,13 @@
         <v>596709</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,7 +7596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7548,13 +7608,13 @@
         <v>37560</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>530</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
@@ -7563,13 +7623,13 @@
         <v>60945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
@@ -7578,13 +7638,13 @@
         <v>98505</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7659,13 @@
         <v>159188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>174</v>
+        <v>540</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
@@ -7614,13 +7674,13 @@
         <v>170958</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
@@ -7629,13 +7689,13 @@
         <v>330146</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,7 +7751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7703,13 +7763,13 @@
         <v>77262</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
@@ -7718,13 +7778,13 @@
         <v>64780</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
@@ -7733,13 +7793,13 @@
         <v>142042</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>553</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7814,13 @@
         <v>199961</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
@@ -7769,13 +7829,13 @@
         <v>210842</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="M20" s="7">
         <v>542</v>
@@ -7784,13 +7844,13 @@
         <v>410803</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>562</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>542</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7846,7 +7906,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7858,13 +7918,13 @@
         <v>115833</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>414</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
@@ -7873,13 +7933,13 @@
         <v>247659</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
@@ -7888,13 +7948,13 @@
         <v>363492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7909,13 +7969,13 @@
         <v>511921</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>552</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="H23" s="7">
         <v>732</v>
@@ -7924,13 +7984,13 @@
         <v>556544</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
@@ -7939,13 +7999,13 @@
         <v>1068465</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8001,7 +8061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8013,13 +8073,13 @@
         <v>146249</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>561</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
@@ -8028,13 +8088,13 @@
         <v>189787</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>545</v>
+        <v>583</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
@@ -8043,13 +8103,13 @@
         <v>336036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>468</v>
+        <v>586</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8064,13 +8124,13 @@
         <v>713179</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>197</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="H26" s="7">
         <v>789</v>
@@ -8079,13 +8139,13 @@
         <v>675244</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>553</v>
+        <v>591</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="M26" s="7">
         <v>1369</v>
@@ -8094,13 +8154,13 @@
         <v>1388423</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>474</v>
+        <v>594</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8168,13 +8228,13 @@
         <v>652050</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>576</v>
+        <v>221</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="H28" s="7">
         <v>1388</v>
@@ -8183,13 +8243,13 @@
         <v>879597</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="M28" s="7">
         <v>2247</v>
@@ -8198,13 +8258,13 @@
         <v>1531647</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8216,16 +8276,16 @@
         <v>2515</v>
       </c>
       <c r="D29" s="7">
-        <v>2731165</v>
+        <v>2731164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>586</v>
+        <v>231</v>
       </c>
       <c r="H29" s="7">
         <v>3972</v>
@@ -8234,28 +8294,28 @@
         <v>2923621</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="M29" s="7">
         <v>6487</v>
       </c>
       <c r="N29" s="7">
-        <v>5654786</v>
+        <v>5654785</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8267,7 +8327,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383215</v>
+        <v>3383214</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8297,7 +8357,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186433</v>
+        <v>7186432</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8311,7 +8371,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A11-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FAE0FB1-54A3-4568-9B1C-F89512E72E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADD4AAFA-4CFA-40E3-A289-623ECCC39063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3ECC30B6-8140-490B-B616-537C44CB75CE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83D5D6D2-B917-470C-828B-52953DB6EF01}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="622">
   <si>
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -587,7 +587,58 @@
     <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2012 (Tasa respuesta: 99,77%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>15,83%</t>
@@ -692,1192 +743,1168 @@
     <t>82,26%</t>
   </si>
   <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>20,44%</t>
   </si>
   <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>81,73%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
   </si>
   <si>
     <t>79,56%</t>
   </si>
   <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>78,43%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
   </si>
   <si>
     <t>77,75%</t>
   </si>
   <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>76,5%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>56,54%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D306FE0-2058-427D-987B-A1535D3A56E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98EF5BAC-B77E-45F6-994E-53DFB78919AE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3716,7 +3743,7 @@
         <v>2749</v>
       </c>
       <c r="I29" s="7">
-        <v>2815814</v>
+        <v>2815813</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>174</v>
@@ -3767,7 +3794,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3820,7 +3847,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E1026-66C4-4BD8-AE3E-17FF0229D45E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93FA3BE-496B-4EBF-95F7-26CBBAE529C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3938,43 +3965,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="7">
+        <v>34954</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I4" s="7">
+        <v>44335</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="N4" s="7">
+        <v>79289</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,43 +4016,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>248</v>
+      </c>
+      <c r="D5" s="7">
+        <v>258055</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>210</v>
+      </c>
+      <c r="I5" s="7">
+        <v>237988</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>458</v>
+      </c>
+      <c r="N5" s="7">
+        <v>496044</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4028,43 +4067,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>280</v>
+      </c>
+      <c r="D6" s="7">
+        <v>293009</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I6" s="7">
+        <v>282323</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>532</v>
+      </c>
+      <c r="N6" s="7">
+        <v>575333</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4126,13 @@
         <v>80010</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="H7" s="7">
         <v>98</v>
@@ -4096,13 +4141,13 @@
         <v>107062</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="M7" s="7">
         <v>169</v>
@@ -4111,13 +4156,13 @@
         <v>187072</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4177,13 @@
         <v>425517</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H8" s="7">
         <v>381</v>
@@ -4147,13 +4192,13 @@
         <v>415669</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M8" s="7">
         <v>782</v>
@@ -4162,13 +4207,13 @@
         <v>841186</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,10 +4284,10 @@
         <v>73</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -4251,13 +4296,13 @@
         <v>77878</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>126</v>
@@ -4266,13 +4311,13 @@
         <v>136881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,10 +4335,10 @@
         <v>82</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H11" s="7">
         <v>246</v>
@@ -4302,13 +4347,13 @@
         <v>263142</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M11" s="7">
         <v>509</v>
@@ -4317,13 +4362,13 @@
         <v>527255</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4385,49 +4430,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>103329</v>
+        <v>68375</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="I13" s="7">
-        <v>140295</v>
+        <v>95960</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M13" s="7">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="N13" s="7">
-        <v>243624</v>
+        <v>164336</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4436,49 +4481,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>532</v>
+        <v>284</v>
       </c>
       <c r="D14" s="7">
-        <v>563663</v>
+        <v>305607</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="H14" s="7">
-        <v>486</v>
+        <v>276</v>
       </c>
       <c r="I14" s="7">
-        <v>530002</v>
+        <v>292014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="M14" s="7">
-        <v>1018</v>
+        <v>560</v>
       </c>
       <c r="N14" s="7">
-        <v>1093665</v>
+        <v>597620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4487,10 +4532,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>624</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>666992</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4502,10 +4547,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>622</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>670297</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4517,10 +4562,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1246</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1337289</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4546,13 +4591,13 @@
         <v>33103</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="H16" s="7">
         <v>55</v>
@@ -4561,13 +4606,13 @@
         <v>57874</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
@@ -4576,13 +4621,13 @@
         <v>90977</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4642,13 @@
         <v>179515</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="H17" s="7">
         <v>157</v>
@@ -4612,13 +4657,13 @@
         <v>161717</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -4627,13 +4672,13 @@
         <v>341232</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4701,13 +4746,13 @@
         <v>62777</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>61</v>
@@ -4716,13 +4761,13 @@
         <v>63564</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="M19" s="7">
         <v>122</v>
@@ -4731,13 +4776,13 @@
         <v>126341</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4797,13 @@
         <v>211204</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="H20" s="7">
         <v>207</v>
@@ -4767,13 +4812,13 @@
         <v>215576</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="M20" s="7">
         <v>407</v>
@@ -4782,13 +4827,13 @@
         <v>426780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,13 +4901,13 @@
         <v>120839</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>143</v>
@@ -4871,13 +4916,13 @@
         <v>159037</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>254</v>
@@ -4886,13 +4931,13 @@
         <v>279876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,13 +4952,13 @@
         <v>541949</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="H23" s="7">
         <v>493</v>
@@ -4922,13 +4967,13 @@
         <v>534816</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="M23" s="7">
         <v>1000</v>
@@ -4937,13 +4982,13 @@
         <v>1076765</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,13 +5056,13 @@
         <v>110293</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>124</v>
@@ -5026,13 +5071,13 @@
         <v>135830</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>222</v>
@@ -5041,13 +5086,13 @@
         <v>246123</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,13 +5107,13 @@
         <v>666679</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -5077,13 +5122,13 @@
         <v>684565</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>1247</v>
@@ -5092,13 +5137,13 @@
         <v>1351244</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,13 +5211,13 @@
         <v>569354</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>688</v>
@@ -5181,28 +5226,28 @@
         <v>741541</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>1206</v>
       </c>
       <c r="N28" s="7">
-        <v>1310895</v>
+        <v>1310894</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5217,13 +5262,13 @@
         <v>2852640</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H29" s="7">
         <v>2600</v>
@@ -5232,13 +5277,13 @@
         <v>2805487</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="M29" s="7">
         <v>5286</v>
@@ -5247,13 +5292,13 @@
         <v>5658127</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,7 +5340,7 @@
         <v>6492</v>
       </c>
       <c r="N30" s="7">
-        <v>6969022</v>
+        <v>6969021</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -5333,7 +5378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA4C8D6-1B22-4FB6-ACFD-82AA880A28D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC84FF-AB08-41F9-B0D7-1C16DF62D223}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5350,7 +5395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5457,13 +5502,13 @@
         <v>30058</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -5472,13 +5517,13 @@
         <v>36738</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="M4" s="7">
         <v>62</v>
@@ -5487,13 +5532,13 @@
         <v>66796</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5553,13 @@
         <v>263703</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="H5" s="7">
         <v>244</v>
@@ -5523,13 +5568,13 @@
         <v>251965</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="M5" s="7">
         <v>481</v>
@@ -5538,13 +5583,13 @@
         <v>515668</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5612,13 +5657,13 @@
         <v>80443</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H7" s="7">
         <v>100</v>
@@ -5627,13 +5672,13 @@
         <v>118153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="M7" s="7">
         <v>176</v>
@@ -5642,13 +5687,13 @@
         <v>198597</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5663,13 +5708,13 @@
         <v>422132</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H8" s="7">
         <v>384</v>
@@ -5678,13 +5723,13 @@
         <v>404931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M8" s="7">
         <v>783</v>
@@ -5693,13 +5738,13 @@
         <v>827062</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5812,13 @@
         <v>48748</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H10" s="7">
         <v>46</v>
@@ -5782,13 +5827,13 @@
         <v>52169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="M10" s="7">
         <v>99</v>
@@ -5797,13 +5842,13 @@
         <v>100917</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5818,13 +5863,13 @@
         <v>269817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>286</v>
@@ -5833,13 +5878,13 @@
         <v>284140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>568</v>
@@ -5848,13 +5893,13 @@
         <v>553957</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>243</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5922,13 +5967,13 @@
         <v>62207</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="H13" s="7">
         <v>69</v>
@@ -5937,13 +5982,13 @@
         <v>83555</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>135</v>
@@ -5952,13 +5997,13 @@
         <v>145762</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6018,13 @@
         <v>307757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>289</v>
@@ -5988,10 +6033,10 @@
         <v>303728</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>102</v>
@@ -6003,13 +6048,13 @@
         <v>611485</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6122,13 @@
         <v>22973</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -6092,13 +6137,13 @@
         <v>42275</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="M16" s="7">
         <v>63</v>
@@ -6107,13 +6152,13 @@
         <v>65248</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6128,13 +6173,13 @@
         <v>188248</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -6143,13 +6188,13 @@
         <v>176312</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>372</v>
@@ -6158,13 +6203,13 @@
         <v>364560</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,10 +6280,10 @@
         <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H19" s="7">
         <v>41</v>
@@ -6247,13 +6292,13 @@
         <v>45375</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="M19" s="7">
         <v>80</v>
@@ -6262,13 +6307,13 @@
         <v>81587</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,10 +6331,10 @@
         <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="H20" s="7">
         <v>222</v>
@@ -6298,13 +6343,13 @@
         <v>227740</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>442</v>
@@ -6313,13 +6358,13 @@
         <v>454651</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6432,13 @@
         <v>96985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="H22" s="7">
         <v>83</v>
@@ -6402,13 +6447,13 @@
         <v>97848</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="M22" s="7">
         <v>173</v>
@@ -6417,13 +6462,13 @@
         <v>194832</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6483,13 @@
         <v>559573</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="H23" s="7">
         <v>563</v>
@@ -6453,13 +6498,13 @@
         <v>593446</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="M23" s="7">
         <v>1053</v>
@@ -6468,13 +6513,13 @@
         <v>1153020</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6587,13 @@
         <v>125962</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>125</v>
@@ -6557,13 +6602,13 @@
         <v>153411</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>241</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -6572,13 +6617,13 @@
         <v>279373</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6593,13 +6638,13 @@
         <v>652621</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -6608,13 +6653,13 @@
         <v>672756</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>385</v>
+        <v>249</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="M26" s="7">
         <v>1255</v>
@@ -6623,13 +6668,13 @@
         <v>1325377</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6697,13 +6742,13 @@
         <v>503588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H28" s="7">
         <v>537</v>
@@ -6712,13 +6757,13 @@
         <v>629524</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>13</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M28" s="7">
         <v>1038</v>
@@ -6727,13 +6772,13 @@
         <v>1133112</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6748,13 +6793,13 @@
         <v>2890762</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>2801</v>
@@ -6763,10 +6808,10 @@
         <v>2915018</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="L29" s="7" t="s">
         <v>22</v>
@@ -6778,10 +6823,10 @@
         <v>5805780</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>178</v>
@@ -6864,7 +6909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9740237-2D82-48A9-A62A-8C59A50D438A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{513B08CE-0404-4BB4-940D-96DB061430B1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6881,7 +6926,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6985,46 +7030,46 @@
         <v>82</v>
       </c>
       <c r="D4" s="7">
-        <v>55050</v>
+        <v>60448</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="H4" s="7">
         <v>112</v>
       </c>
       <c r="I4" s="7">
-        <v>52255</v>
+        <v>53598</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>379</v>
+        <v>221</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>194</v>
       </c>
       <c r="N4" s="7">
-        <v>107304</v>
+        <v>114046</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7036,46 +7081,46 @@
         <v>249</v>
       </c>
       <c r="D5" s="7">
-        <v>205248</v>
+        <v>250995</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="H5" s="7">
         <v>426</v>
       </c>
       <c r="I5" s="7">
-        <v>219148</v>
+        <v>236037</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>387</v>
+        <v>230</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>675</v>
       </c>
       <c r="N5" s="7">
-        <v>424396</v>
+        <v>487031</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,7 +7132,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7102,7 +7147,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7117,7 +7162,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7140,46 +7185,46 @@
         <v>75</v>
       </c>
       <c r="D7" s="7">
-        <v>82501</v>
+        <v>78392</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>127</v>
       </c>
       <c r="I7" s="7">
-        <v>84469</v>
+        <v>77097</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>325</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
       </c>
       <c r="N7" s="7">
-        <v>166970</v>
+        <v>155489</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>489</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7191,46 +7236,46 @@
         <v>305</v>
       </c>
       <c r="D8" s="7">
-        <v>434783</v>
+        <v>438117</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>200</v>
+        <v>416</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="H8" s="7">
         <v>588</v>
       </c>
       <c r="I8" s="7">
-        <v>468747</v>
+        <v>436628</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>893</v>
       </c>
       <c r="N8" s="7">
-        <v>903530</v>
+        <v>874745</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7242,7 +7287,7 @@
         <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>517284</v>
+        <v>516509</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7257,7 +7302,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7272,7 +7317,7 @@
         <v>1095</v>
       </c>
       <c r="N9" s="7">
-        <v>1070500</v>
+        <v>1030234</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7295,46 +7340,46 @@
         <v>103</v>
       </c>
       <c r="D10" s="7">
-        <v>72146</v>
+        <v>68711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>75</v>
+        <v>508</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="H10" s="7">
         <v>158</v>
       </c>
       <c r="I10" s="7">
-        <v>91065</v>
+        <v>83770</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>261</v>
       </c>
       <c r="N10" s="7">
-        <v>163211</v>
+        <v>152481</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>502</v>
+        <v>289</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7346,46 +7391,46 @@
         <v>257</v>
       </c>
       <c r="D11" s="7">
-        <v>250094</v>
+        <v>247339</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>83</v>
+        <v>516</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>378</v>
       </c>
       <c r="I11" s="7">
-        <v>282219</v>
+        <v>265358</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>506</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>508</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>635</v>
       </c>
       <c r="N11" s="7">
-        <v>532313</v>
+        <v>512697</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>509</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>522</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>510</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7442,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7412,7 +7457,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7427,7 +7472,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7450,46 +7495,46 @@
         <v>83</v>
       </c>
       <c r="D13" s="7">
-        <v>65449</v>
+        <v>62210</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>511</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>512</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>513</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>190</v>
       </c>
       <c r="I13" s="7">
-        <v>88638</v>
+        <v>82961</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>514</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>516</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>273</v>
       </c>
       <c r="N13" s="7">
-        <v>154087</v>
+        <v>145171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>517</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>518</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7501,46 +7546,46 @@
         <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>256791</v>
+        <v>250347</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>409</v>
       </c>
       <c r="I14" s="7">
-        <v>339918</v>
+        <v>392757</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="M14" s="7">
         <v>618</v>
       </c>
       <c r="N14" s="7">
-        <v>596709</v>
+        <v>643103</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7552,7 +7597,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7567,7 +7612,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7582,7 +7627,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7605,46 +7650,46 @@
         <v>63</v>
       </c>
       <c r="D16" s="7">
-        <v>37560</v>
+        <v>34166</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>530</v>
+        <v>168</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>150</v>
       </c>
       <c r="I16" s="7">
-        <v>60945</v>
+        <v>55302</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>213</v>
       </c>
       <c r="N16" s="7">
-        <v>98505</v>
+        <v>89468</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,46 +7701,46 @@
         <v>216</v>
       </c>
       <c r="D17" s="7">
-        <v>159188</v>
+        <v>144576</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>538</v>
+        <v>458</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>540</v>
+        <v>177</v>
       </c>
       <c r="H17" s="7">
         <v>342</v>
       </c>
       <c r="I17" s="7">
-        <v>170958</v>
+        <v>153354</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>558</v>
       </c>
       <c r="N17" s="7">
-        <v>330146</v>
+        <v>297930</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,7 +7752,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7722,7 +7767,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7737,7 +7782,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7760,46 +7805,46 @@
         <v>137</v>
       </c>
       <c r="D19" s="7">
-        <v>77262</v>
+        <v>73811</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>152</v>
       </c>
       <c r="I19" s="7">
-        <v>64780</v>
+        <v>60405</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="M19" s="7">
         <v>289</v>
       </c>
       <c r="N19" s="7">
-        <v>142042</v>
+        <v>134216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>555</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,46 +7856,46 @@
         <v>234</v>
       </c>
       <c r="D20" s="7">
-        <v>199961</v>
+        <v>195825</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
       <c r="H20" s="7">
         <v>308</v>
       </c>
       <c r="I20" s="7">
-        <v>210842</v>
+        <v>196651</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="M20" s="7">
         <v>542</v>
       </c>
       <c r="N20" s="7">
-        <v>410803</v>
+        <v>392476</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,7 +7907,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7877,7 +7922,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7892,7 +7937,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7915,46 +7960,46 @@
         <v>134</v>
       </c>
       <c r="D22" s="7">
-        <v>115833</v>
+        <v>110350</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>566</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>228</v>
       </c>
       <c r="I22" s="7">
-        <v>247659</v>
+        <v>330471</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>568</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>362</v>
       </c>
       <c r="N22" s="7">
-        <v>363492</v>
+        <v>440820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,46 +8011,46 @@
         <v>465</v>
       </c>
       <c r="D23" s="7">
-        <v>511921</v>
+        <v>513929</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="H23" s="7">
         <v>732</v>
       </c>
       <c r="I23" s="7">
-        <v>556544</v>
+        <v>518794</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M23" s="7">
         <v>1197</v>
       </c>
       <c r="N23" s="7">
-        <v>1068465</v>
+        <v>1032724</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,7 +8062,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8032,7 +8077,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8047,7 +8092,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8070,46 +8115,46 @@
         <v>182</v>
       </c>
       <c r="D25" s="7">
-        <v>146249</v>
+        <v>125251</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>531</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H25" s="7">
         <v>271</v>
       </c>
       <c r="I25" s="7">
-        <v>189787</v>
+        <v>159037</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="M25" s="7">
         <v>453</v>
       </c>
       <c r="N25" s="7">
-        <v>336036</v>
+        <v>284288</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8121,46 +8166,46 @@
         <v>580</v>
       </c>
       <c r="D26" s="7">
-        <v>713179</v>
+        <v>803469</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>197</v>
+        <v>541</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="H26" s="7">
         <v>789</v>
       </c>
       <c r="I26" s="7">
-        <v>675244</v>
+        <v>555814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="M26" s="7">
         <v>1369</v>
       </c>
       <c r="N26" s="7">
-        <v>1388423</v>
+        <v>1359284</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>596</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8172,7 +8217,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8187,7 +8232,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8202,7 +8247,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8225,46 +8270,46 @@
         <v>859</v>
       </c>
       <c r="D28" s="7">
-        <v>652050</v>
+        <v>613339</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>597</v>
+        <v>224</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>221</v>
+        <v>606</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>598</v>
+        <v>607</v>
       </c>
       <c r="H28" s="7">
         <v>1388</v>
       </c>
       <c r="I28" s="7">
-        <v>879597</v>
+        <v>902641</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>599</v>
+        <v>608</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>600</v>
+        <v>609</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="M28" s="7">
         <v>2247</v>
       </c>
       <c r="N28" s="7">
-        <v>1531647</v>
+        <v>1515979</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8276,46 +8321,46 @@
         <v>2515</v>
       </c>
       <c r="D29" s="7">
-        <v>2731164</v>
+        <v>2844598</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>605</v>
+        <v>233</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>231</v>
+        <v>615</v>
       </c>
       <c r="H29" s="7">
         <v>3972</v>
       </c>
       <c r="I29" s="7">
-        <v>2923621</v>
+        <v>2755392</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="M29" s="7">
         <v>6487</v>
       </c>
       <c r="N29" s="7">
-        <v>5654785</v>
+        <v>5599990</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8327,7 +8372,7 @@
         <v>3374</v>
       </c>
       <c r="D30" s="7">
-        <v>3383214</v>
+        <v>3457937</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8342,7 +8387,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803218</v>
+        <v>3658033</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8357,7 +8402,7 @@
         <v>8734</v>
       </c>
       <c r="N30" s="7">
-        <v>7186432</v>
+        <v>7115969</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
